--- a/book1.xlsx
+++ b/book1.xlsx
@@ -1450,17 +1450,57 @@
       <c r="O18" s="5" t="n">
         <v>11.3739</v>
       </c>
-      <c r="P18" s="10" t="n"/>
-      <c r="Q18" s="10" t="n"/>
-      <c r="R18" s="10" t="n"/>
-      <c r="S18" s="10" t="n"/>
-      <c r="T18" s="10" t="n"/>
-      <c r="U18" s="10" t="n"/>
-      <c r="V18" s="10" t="n"/>
-      <c r="W18" s="10" t="n"/>
-      <c r="X18" s="10" t="n"/>
-      <c r="Y18" s="10" t="n"/>
-      <c r="Z18" s="10" t="n"/>
+      <c r="P18" s="10" t="inlineStr">
+        <is>
+          <t>288.15</t>
+        </is>
+      </c>
+      <c r="Q18" s="10" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="R18" s="10" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="S18" s="10" t="inlineStr">
+        <is>
+          <t>4.0756</t>
+        </is>
+      </c>
+      <c r="T18" s="10" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="U18" s="10" t="inlineStr">
+        <is>
+          <t>7.6431</t>
+        </is>
+      </c>
+      <c r="V18" s="10" t="n">
+        <v>1.824281150159744</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>1.362391602008215</v>
+      </c>
+      <c r="X18" s="10" t="inlineStr">
+        <is>
+          <t>7.994B</t>
+        </is>
+      </c>
+      <c r="Y18" s="10" t="inlineStr">
+        <is>
+          <t>321.8000</t>
+        </is>
+      </c>
+      <c r="Z18" s="10" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
       <c r="AA18" s="4" t="n"/>
       <c r="AB18" s="4" t="n"/>
       <c r="AC18" s="4" t="n"/>
@@ -1512,17 +1552,59 @@
       <c r="O19" s="5" t="n">
         <v>-27.5093</v>
       </c>
-      <c r="P19" s="10" t="n"/>
-      <c r="Q19" s="10" t="n"/>
-      <c r="R19" s="10" t="n"/>
-      <c r="S19" s="10" t="n"/>
-      <c r="T19" s="10" t="n"/>
-      <c r="U19" s="10" t="n"/>
-      <c r="V19" s="10" t="n"/>
-      <c r="W19" s="10" t="n"/>
-      <c r="X19" s="10" t="n"/>
-      <c r="Y19" s="10" t="n"/>
-      <c r="Z19" s="10" t="n"/>
+      <c r="P19" s="10" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="Q19" s="10" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="R19" s="10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="S19" s="10" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="T19" s="10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="U19" s="10" t="inlineStr">
+        <is>
+          <t>4.5277</t>
+        </is>
+      </c>
+      <c r="V19" s="10" t="n">
+        <v>0.7312643272791395</v>
+      </c>
+      <c r="W19" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X19" s="10" t="inlineStr">
+        <is>
+          <t>4.147B</t>
+        </is>
+      </c>
+      <c r="Y19" s="10" t="inlineStr">
+        <is>
+          <t>42.6000</t>
+        </is>
+      </c>
+      <c r="Z19" s="10" t="inlineStr">
+        <is>
+          <t>13.1000</t>
+        </is>
+      </c>
       <c r="AA19" s="4" t="n"/>
       <c r="AB19" s="4" t="n"/>
       <c r="AC19" s="4" t="n"/>
@@ -1574,17 +1656,59 @@
       <c r="O20" s="5" t="n">
         <v>-28.5301</v>
       </c>
-      <c r="P20" s="10" t="n"/>
-      <c r="Q20" s="10" t="n"/>
-      <c r="R20" s="10" t="n"/>
-      <c r="S20" s="10" t="n"/>
-      <c r="T20" s="10" t="n"/>
-      <c r="U20" s="10" t="n"/>
-      <c r="V20" s="10" t="n"/>
-      <c r="W20" s="10" t="n"/>
-      <c r="X20" s="10" t="n"/>
-      <c r="Y20" s="10" t="n"/>
-      <c r="Z20" s="10" t="n"/>
+      <c r="P20" s="10" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="Q20" s="10" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="R20" s="10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="S20" s="10" t="inlineStr">
+        <is>
+          <t>1.7741</t>
+        </is>
+      </c>
+      <c r="T20" s="10" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="U20" s="10" t="inlineStr">
+        <is>
+          <t>5.0666</t>
+        </is>
+      </c>
+      <c r="V20" s="10" t="n">
+        <v>0.6735401143649281</v>
+      </c>
+      <c r="W20" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X20" s="10" t="inlineStr">
+        <is>
+          <t>7.774B</t>
+        </is>
+      </c>
+      <c r="Y20" s="10" t="inlineStr">
+        <is>
+          <t>93.9500</t>
+        </is>
+      </c>
+      <c r="Z20" s="10" t="inlineStr">
+        <is>
+          <t>31.3500</t>
+        </is>
+      </c>
       <c r="AA20" s="4" t="n"/>
       <c r="AB20" s="4" t="n"/>
       <c r="AC20" s="4" t="n"/>
@@ -1636,17 +1760,59 @@
       <c r="O21" s="5" t="n">
         <v>25.1715</v>
       </c>
-      <c r="P21" s="10" t="n"/>
-      <c r="Q21" s="10" t="n"/>
-      <c r="R21" s="10" t="n"/>
-      <c r="S21" s="10" t="n"/>
-      <c r="T21" s="10" t="n"/>
-      <c r="U21" s="10" t="n"/>
-      <c r="V21" s="10" t="n"/>
-      <c r="W21" s="10" t="n"/>
-      <c r="X21" s="10" t="n"/>
-      <c r="Y21" s="10" t="n"/>
-      <c r="Z21" s="10" t="n"/>
+      <c r="P21" s="10" t="inlineStr">
+        <is>
+          <t>163.80</t>
+        </is>
+      </c>
+      <c r="Q21" s="10" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="R21" s="10" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="S21" s="10" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="T21" s="10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="U21" s="10" t="inlineStr">
+        <is>
+          <t>3.4530</t>
+        </is>
+      </c>
+      <c r="V21" s="10" t="n">
+        <v>1.254746525738892</v>
+      </c>
+      <c r="W21" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X21" s="10" t="inlineStr">
+        <is>
+          <t>25.642B</t>
+        </is>
+      </c>
+      <c r="Y21" s="10" t="inlineStr">
+        <is>
+          <t>216.8000</t>
+        </is>
+      </c>
+      <c r="Z21" s="10" t="inlineStr">
+        <is>
+          <t>46.0500</t>
+        </is>
+      </c>
       <c r="AA21" s="4" t="n"/>
       <c r="AB21" s="4" t="n"/>
       <c r="AC21" s="4" t="n"/>
@@ -1698,17 +1864,59 @@
       <c r="O22" s="5" t="n">
         <v>-39.4757</v>
       </c>
-      <c r="P22" s="10" t="n"/>
-      <c r="Q22" s="10" t="n"/>
-      <c r="R22" s="10" t="n"/>
-      <c r="S22" s="10" t="n"/>
-      <c r="T22" s="10" t="n"/>
-      <c r="U22" s="10" t="n"/>
-      <c r="V22" s="10" t="n"/>
-      <c r="W22" s="10" t="n"/>
-      <c r="X22" s="10" t="n"/>
-      <c r="Y22" s="10" t="n"/>
-      <c r="Z22" s="10" t="n"/>
+      <c r="P22" s="10" t="inlineStr">
+        <is>
+          <t>35.80</t>
+        </is>
+      </c>
+      <c r="Q22" s="10" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="R22" s="10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="S22" s="10" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="T22" s="10" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="U22" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="V22" s="10" t="n">
+        <v>0.3962498777437789</v>
+      </c>
+      <c r="W22" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X22" s="10" t="inlineStr">
+        <is>
+          <t>28.36B</t>
+        </is>
+      </c>
+      <c r="Y22" s="10" t="inlineStr">
+        <is>
+          <t>64.6500</t>
+        </is>
+      </c>
+      <c r="Z22" s="10" t="inlineStr">
+        <is>
+          <t>18.7500</t>
+        </is>
+      </c>
       <c r="AA22" s="4" t="n"/>
       <c r="AB22" s="4" t="n"/>
       <c r="AC22" s="4" t="n"/>
@@ -1760,17 +1968,57 @@
       <c r="O23" s="5" t="n">
         <v>-25.5119</v>
       </c>
-      <c r="P23" s="10" t="n"/>
-      <c r="Q23" s="10" t="n"/>
-      <c r="R23" s="10" t="n"/>
-      <c r="S23" s="10" t="n"/>
-      <c r="T23" s="10" t="n"/>
-      <c r="U23" s="10" t="n"/>
-      <c r="V23" s="10" t="n"/>
-      <c r="W23" s="10" t="n"/>
-      <c r="X23" s="10" t="n"/>
-      <c r="Y23" s="10" t="n"/>
-      <c r="Z23" s="10" t="n"/>
+      <c r="P23" s="10" t="inlineStr">
+        <is>
+          <t>130.95</t>
+        </is>
+      </c>
+      <c r="Q23" s="10" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="R23" s="10" t="inlineStr">
+        <is>
+          <t>−18.00</t>
+        </is>
+      </c>
+      <c r="S23" s="10" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="T23" s="10" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="U23" s="10" t="inlineStr">
+        <is>
+          <t>3.4523</t>
+        </is>
+      </c>
+      <c r="V23" s="10" t="n">
+        <v>0.5812132606677931</v>
+      </c>
+      <c r="W23" s="10" t="n">
+        <v>0.8652752326328566</v>
+      </c>
+      <c r="X23" s="10" t="inlineStr">
+        <is>
+          <t>488.44B</t>
+        </is>
+      </c>
+      <c r="Y23" s="10" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="Z23" s="10" t="inlineStr">
+        <is>
+          <t>60.2000</t>
+        </is>
+      </c>
       <c r="AA23" s="4" t="n"/>
       <c r="AB23" s="4" t="n"/>
       <c r="AC23" s="4" t="n"/>
@@ -1822,17 +2070,59 @@
       <c r="O24" s="5" t="n">
         <v>5.2984</v>
       </c>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="10" t="n"/>
-      <c r="R24" s="10" t="n"/>
-      <c r="S24" s="10" t="n"/>
-      <c r="T24" s="10" t="n"/>
-      <c r="U24" s="10" t="n"/>
-      <c r="V24" s="10" t="n"/>
-      <c r="W24" s="10" t="n"/>
-      <c r="X24" s="10" t="n"/>
-      <c r="Y24" s="10" t="n"/>
-      <c r="Z24" s="10" t="n"/>
+      <c r="P24" s="10" t="inlineStr">
+        <is>
+          <t>335.70</t>
+        </is>
+      </c>
+      <c r="Q24" s="10" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="R24" s="10" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="S24" s="10" t="inlineStr">
+        <is>
+          <t>5.2236</t>
+        </is>
+      </c>
+      <c r="T24" s="10" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="U24" s="10" t="inlineStr">
+        <is>
+          <t>3.7395</t>
+        </is>
+      </c>
+      <c r="V24" s="10" t="n">
+        <v>0.9451820586113857</v>
+      </c>
+      <c r="W24" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X24" s="10" t="inlineStr">
+        <is>
+          <t>35.381B</t>
+        </is>
+      </c>
+      <c r="Y24" s="10" t="inlineStr">
+        <is>
+          <t>354.9500</t>
+        </is>
+      </c>
+      <c r="Z24" s="10" t="inlineStr">
+        <is>
+          <t>147.2500</t>
+        </is>
+      </c>
       <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n"/>
       <c r="AC24" s="4" t="n"/>
@@ -1884,17 +2174,59 @@
       <c r="O25" s="5" t="n">
         <v>-10.0657</v>
       </c>
-      <c r="P25" s="10" t="n"/>
-      <c r="Q25" s="10" t="n"/>
-      <c r="R25" s="10" t="n"/>
-      <c r="S25" s="10" t="n"/>
-      <c r="T25" s="10" t="n"/>
-      <c r="U25" s="10" t="n"/>
-      <c r="V25" s="10" t="n"/>
-      <c r="W25" s="10" t="n"/>
-      <c r="X25" s="10" t="n"/>
-      <c r="Y25" s="10" t="n"/>
-      <c r="Z25" s="10" t="n"/>
+      <c r="P25" s="10" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="Q25" s="10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="R25" s="10" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="S25" s="10" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="T25" s="10" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="U25" s="10" t="inlineStr">
+        <is>
+          <t>8.6675</t>
+        </is>
+      </c>
+      <c r="V25" s="10" t="n">
+        <v>0.8275707187957473</v>
+      </c>
+      <c r="W25" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X25" s="10" t="inlineStr">
+        <is>
+          <t>895.458B</t>
+        </is>
+      </c>
+      <c r="Y25" s="10" t="inlineStr">
+        <is>
+          <t>125.4000</t>
+        </is>
+      </c>
+      <c r="Z25" s="10" t="inlineStr">
+        <is>
+          <t>73.2000</t>
+        </is>
+      </c>
       <c r="AA25" s="4" t="n"/>
       <c r="AB25" s="4" t="n"/>
       <c r="AC25" s="4" t="n"/>
@@ -1946,17 +2278,59 @@
       <c r="O26" s="5" t="n">
         <v>-23.8471</v>
       </c>
-      <c r="P26" s="10" t="n"/>
-      <c r="Q26" s="10" t="n"/>
-      <c r="R26" s="10" t="n"/>
-      <c r="S26" s="10" t="n"/>
-      <c r="T26" s="10" t="n"/>
-      <c r="U26" s="10" t="n"/>
-      <c r="V26" s="10" t="n"/>
-      <c r="W26" s="10" t="n"/>
-      <c r="X26" s="10" t="n"/>
-      <c r="Y26" s="10" t="n"/>
-      <c r="Z26" s="10" t="n"/>
+      <c r="P26" s="10" t="inlineStr">
+        <is>
+          <t>303.30</t>
+        </is>
+      </c>
+      <c r="Q26" s="10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="R26" s="10" t="inlineStr">
+        <is>
+          <t>51.90</t>
+        </is>
+      </c>
+      <c r="S26" s="10" t="inlineStr">
+        <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="T26" s="10" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="U26" s="10" t="inlineStr">
+        <is>
+          <t>10.3372</t>
+        </is>
+      </c>
+      <c r="V26" s="10" t="n">
+        <v>0.7775596158541547</v>
+      </c>
+      <c r="W26" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X26" s="10" t="inlineStr">
+        <is>
+          <t>152.862B</t>
+        </is>
+      </c>
+      <c r="Y26" s="10" t="inlineStr">
+        <is>
+          <t>486.7500</t>
+        </is>
+      </c>
+      <c r="Z26" s="10" t="inlineStr">
+        <is>
+          <t>185.2500</t>
+        </is>
+      </c>
       <c r="AA26" s="4" t="n"/>
       <c r="AB26" s="4" t="n"/>
       <c r="AC26" s="4" t="n"/>
@@ -2008,17 +2382,57 @@
       <c r="O27" s="5" t="n">
         <v>-41.5655</v>
       </c>
-      <c r="P27" s="10" t="n"/>
-      <c r="Q27" s="10" t="n"/>
-      <c r="R27" s="10" t="n"/>
-      <c r="S27" s="10" t="n"/>
-      <c r="T27" s="10" t="n"/>
-      <c r="U27" s="10" t="n"/>
-      <c r="V27" s="10" t="n"/>
-      <c r="W27" s="10" t="n"/>
-      <c r="X27" s="10" t="n"/>
-      <c r="Y27" s="10" t="n"/>
-      <c r="Z27" s="10" t="n"/>
+      <c r="P27" s="10" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="Q27" s="10" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="R27" s="10" t="inlineStr">
+        <is>
+          <t>−0.80</t>
+        </is>
+      </c>
+      <c r="S27" s="10" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="T27" s="10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="U27" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="V27" s="10" t="n">
+        <v>0.2285367661186287</v>
+      </c>
+      <c r="W27" s="10" t="n">
+        <v>-0.1355650097439135</v>
+      </c>
+      <c r="X27" s="10" t="inlineStr">
+        <is>
+          <t>208.157B</t>
+        </is>
+      </c>
+      <c r="Y27" s="10" t="inlineStr">
+        <is>
+          <t>108.2500</t>
+        </is>
+      </c>
+      <c r="Z27" s="10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="AA27" s="4" t="n"/>
       <c r="AB27" s="4" t="n"/>
       <c r="AC27" s="4" t="n"/>
@@ -2070,17 +2484,59 @@
       <c r="O28" s="5" t="n">
         <v>55.287</v>
       </c>
-      <c r="P28" s="10" t="n"/>
-      <c r="Q28" s="10" t="n"/>
-      <c r="R28" s="10" t="n"/>
-      <c r="S28" s="10" t="n"/>
-      <c r="T28" s="10" t="n"/>
-      <c r="U28" s="10" t="n"/>
-      <c r="V28" s="10" t="n"/>
-      <c r="W28" s="10" t="n"/>
-      <c r="X28" s="10" t="n"/>
-      <c r="Y28" s="10" t="n"/>
-      <c r="Z28" s="10" t="n"/>
+      <c r="P28" s="10" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="Q28" s="10" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="R28" s="10" t="inlineStr">
+        <is>
+          <t>−4.50</t>
+        </is>
+      </c>
+      <c r="S28" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T28" s="10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="U28" s="10" t="inlineStr">
+        <is>
+          <t>14.8655</t>
+        </is>
+      </c>
+      <c r="V28" s="10" t="n">
+        <v>1.722892284222821</v>
+      </c>
+      <c r="W28" s="10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="X28" s="10" t="inlineStr">
+        <is>
+          <t>144.561B</t>
+        </is>
+      </c>
+      <c r="Y28" s="10" t="inlineStr">
+        <is>
+          <t>28.2500</t>
+        </is>
+      </c>
+      <c r="Z28" s="10" t="inlineStr">
+        <is>
+          <t>14.1000</t>
+        </is>
+      </c>
       <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n"/>
       <c r="AC28" s="4" t="n"/>
